--- a/results_sample.xlsx
+++ b/results_sample.xlsx
@@ -26,17 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0001"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -48,8 +43,18 @@
         <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,15 +62,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,104 +477,267 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="n">
         <v>1</v>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
       </c>
       <c r="E1" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="n">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">→
+</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">→
+</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>7</v>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">→
+</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="n">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="I5" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="C7" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="G7" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>→
+←</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>↓↑</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">→
+</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">→
+</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/results_sample.xlsx
+++ b/results_sample.xlsx
@@ -80,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -94,7 +94,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -465,15 +477,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="32" customHeight="1">
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
@@ -513,8 +538,18 @@
       <c r="I1" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>LP → DP</t>
+        </is>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" ht="32" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>↓↑</t>
@@ -535,9 +570,19 @@
           <t>↑</t>
         </is>
       </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>car 1</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>3 → 9</t>
+        </is>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="3" ht="32" customHeight="1">
+      <c r="A3" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -546,7 +591,7 @@
 </t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -555,7 +600,7 @@
 </t>
         </is>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -576,8 +621,18 @@
       <c r="I3" s="3" t="n">
         <v>9</v>
       </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>car 2</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>2 → 6</t>
+        </is>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" ht="32" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>↓↑</t>
@@ -593,9 +648,19 @@
           <t>↓↑</t>
         </is>
       </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>car 3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2 → 8</t>
+        </is>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
+    <row r="5" ht="32" customHeight="1">
+      <c r="A5" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -604,7 +669,7 @@
 ←</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -613,7 +678,7 @@
 ←</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -627,8 +692,18 @@
       <c r="I5" s="3" t="n">
         <v>14</v>
       </c>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>car 4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5 → 7</t>
+        </is>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" ht="32" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>↓↑</t>
@@ -645,11 +720,11 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="32" customHeight="1">
       <c r="A7" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="10" t="n">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -658,7 +733,7 @@
 ←</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="10" t="n">
         <v>17</v>
       </c>
       <c r="G7" s="4" t="n">
@@ -674,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="32" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>↓↑</t>
@@ -701,7 +776,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="32" customHeight="1">
       <c r="A9" s="4" t="n">
         <v>20</v>
       </c>
@@ -710,7 +785,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="10" t="n">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -718,7 +793,7 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="10" t="n">
         <v>22</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -727,7 +802,7 @@
 </t>
         </is>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="10" t="n">
         <v>23</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -736,10 +811,12 @@
 </t>
         </is>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="10" t="n">
         <v>24</v>
       </c>
     </row>
+    <row r="10" ht="32" customHeight="1"/>
+    <row r="11" ht="32" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
